--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,10 +102,10 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J283-PrestationsIndirects_SERAFIN/FHIR/JDV-J283-PrestationsIndirects-SERAFIN</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J284-PrestationsDirects_SERAFIN/FHIR/JDV-J284-PrestationsDirects-SERAFIN</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J283-PrestationsIndirects_SERAFIN/FHIR/JDV-J283-PrestationsIndirects-SERAFIN|20241025120000</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J284-PrestationsDirects_SERAFIN/FHIR/JDV-J284-PrestationsDirects-SERAFIN|20241025120000</t>
   </si>
 </sst>
 </file>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,10 +102,10 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J283-PrestationsIndirects_SERAFIN/FHIR/JDV-J283-PrestationsIndirects-SERAFIN|20241025120000</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J284-PrestationsDirects_SERAFIN/FHIR/JDV-J284-PrestationsDirects-SERAFIN|20241025120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J283-PrestationsIndirects_SERAFIN/FHIR/JDV-J283-PrestationsIndirects-SERAFIN</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J284-PrestationsDirects_SERAFIN/FHIR/JDV-J284-PrestationsDirects-SERAFIN</t>
   </si>
 </sst>
 </file>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,10 +102,10 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J283-PrestationsIndirects_SERAFIN/FHIR/JDV-J283-PrestationsIndirects-SERAFIN</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J284-PrestationsDirects_SERAFIN/FHIR/JDV-J284-PrestationsDirects-SERAFIN</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J283-PrestationsIndirects_SERAFIN/FHIR/JDV-J283-PrestationsIndirects-SERAFIN|20241025120000</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J284-PrestationsDirects_SERAFIN/FHIR/JDV-J284-PrestationsDirects-SERAFIN|20241025120000</t>
   </si>
 </sst>
 </file>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/main/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
